--- a/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>再造梗丝产品理化检测报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>检测日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观评测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,15 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,191 +445,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,41 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>再造梗丝产品理化检测报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>检查类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>评分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测日期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,22 +57,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,15 +111,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +472,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,36 +493,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -637,8 +674,9 @@
       <c r="D29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
@@ -36,15 +36,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测月份：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -501,11 +501,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品理化检测报告.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619A994-EA77-41D0-9D89-9164668920EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="理化检测" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,6 +64,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -70,6 +72,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,10 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +169,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -177,6 +187,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +271,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,210 +515,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
